--- a/assets/post/2020-12-31-bilan-2020/votes_2020.xlsx
+++ b/assets/post/2020-12-31-bilan-2020/votes_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\rafaelmaychmaz_politique\assets\post\2020-12-31-bilan-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C0A03-F66A-49D6-9B1C-12127A890975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7905EDF-EB0E-47FE-A7E5-673D643EC97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13245" yWindow="2130" windowWidth="19260" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="3975" windowWidth="19260" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <f>SUM(B3:F3)+I2</f>
+        <f t="shared" ref="I3:I8" si="0">SUM(B3:F3)+I2</f>
         <v>53</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <f>SUM(B4:F4)+I3</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="I5">
-        <f>SUM(B5:F5)+I4</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
         <v>7</v>
       </c>
       <c r="I6">
-        <f>SUM(B6:F6)+I5</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="I7">
-        <f>SUM(B7:F7)+I6</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
         <v>7</v>
       </c>
       <c r="I8">
-        <f>SUM(B8:F8)+I7</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
@@ -1794,19 +1794,19 @@
         <v>76</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:F9" si="0">SUM(C2:C8)</f>
+        <f t="shared" ref="C9:F9" si="1">SUM(C2:C8)</f>
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
